--- a/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
+++ b/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45113</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45115</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45115</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45116</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45117</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45121</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>45121</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45121</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45127</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45128</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45128</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>45128</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45128</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45128</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45132</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45138</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45138</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45138</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
+++ b/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45113</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45115</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45115</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45116</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45117</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45121</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>45121</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45121</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45127</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45128</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45128</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>45128</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45128</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45128</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45132</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45138</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45138</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45138</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
+++ b/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45113</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45115</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45115</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45116</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45117</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45121</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>45121</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45121</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45127</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45128</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45128</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>45128</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45128</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45128</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45132</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45138</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45138</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45138</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
+++ b/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45113</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45115</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45115</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45116</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45117</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45121</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>45121</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45121</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45127</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45128</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45128</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>45128</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45128</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45128</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45132</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45138</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45138</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45138</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
+++ b/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45113</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45115</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45115</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45116</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45117</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45121</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>45121</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45121</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45127</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45128</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45128</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>45128</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45128</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45128</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45132</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45138</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45138</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45138</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
+++ b/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45113</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45115</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45115</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45116</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45117</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45121</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>45121</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45121</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45127</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45128</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45128</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>45128</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45128</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45128</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45132</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45138</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45138</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45138</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
+++ b/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45113</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45115</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45115</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45116</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45117</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45121</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>45121</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45121</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45127</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45128</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45128</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>45128</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45128</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45128</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45132</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45138</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45138</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45138</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
+++ b/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45113</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45115</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45115</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45116</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45117</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45121</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>45121</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45121</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45127</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45128</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45128</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>45128</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45128</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45128</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45132</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45138</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45138</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45138</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
+++ b/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45113</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45115</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45115</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45116</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45117</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45121</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>45121</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45121</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45127</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45128</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45128</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>45128</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45128</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45128</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45132</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45138</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45138</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45138</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
+++ b/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45113</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45115</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45115</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45116</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45117</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45121</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>45121</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45121</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45127</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45128</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45128</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>45128</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45128</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45128</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45132</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45138</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45138</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45138</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
+++ b/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45113</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45115</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45115</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45116</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45117</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45121</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>45121</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45121</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45127</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45128</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45128</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>45128</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45128</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45128</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45132</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45138</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45138</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45138</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
+++ b/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45113</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45115</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45115</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45116</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45117</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45121</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>45121</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45121</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45127</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45128</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45128</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>45128</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45128</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45128</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45132</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45138</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45138</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45138</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
+++ b/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45113</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45115</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45115</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45116</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45117</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45121</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>45121</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45121</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45127</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45128</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45128</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>45128</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45128</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45128</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45132</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45138</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45138</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45138</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
+++ b/Logging_SKANE_LAN/Översikt SKÅNE LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45112</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45112</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>45113</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>45113</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45114</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45114</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45115</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45115</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45116</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>45116</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45117</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45117</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45118</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45118</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45118</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45120</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45121</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>45121</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>45121</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45121</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45121</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>45121</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45121</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45124</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>45124</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>45124</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>45126</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>45126</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45127</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45128</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45128</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>45128</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5723,7 +5723,7 @@
         <v>45128</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45128</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45132</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45138</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45138</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45138</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
